--- a/GATEWAY/A1#200000SWHSHARK/e-Shark S.r.l/FaithG/2.9.0/report-checklist.xlsx
+++ b/GATEWAY/A1#200000SWHSHARK/e-Shark S.r.l/FaithG/2.9.0/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\it-fse-accreditamento\GATEWAY\A1#200000SWHSHARK\e-Shark S.r.l\FaithG\2.9.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E391B2-D18F-4D13-9993-812C80EA7511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221DD3A2-2821-4761-BAC1-20106803C9E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5955" yWindow="3420" windowWidth="28800" windowHeight="15345" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43635" yWindow="3600" windowWidth="28695" windowHeight="15240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="501">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1898,39 +1898,6 @@
     <t>3) Nel caso in cui tra le tipologie documentali oggetto di accreditamento per l'applicativo figurino PSS,RAD,RAP i relativi casi di test con id 444, 446, 417,418,460 che recepiscono quanto previsto dal Decreto 07 settembre 2023, devono essere obbligatoriamente eseguiti e compilati (la colonna APPLICABILITA' deve essere valorizzata con SI)</t>
   </si>
   <si>
-    <t>Il software non permette l'inserimento di un livello di riservatezza vuoto in quanto il campo è obbligatorio.</t>
-  </si>
-  <si>
-    <t>Il controllo sulla validità del codice fiscale viene effettuato dal software in fase di inserimento del paziente e la congruenza del codice fiscale stesso viene controllato prima di effettuare una validazione documento all'FSE. Il Codice Fiscale viene inviato sempre in MAIUSCOLO</t>
-  </si>
-  <si>
-    <t>Non è possibile indicare valori diversi da quelli previsti nel dizionario.</t>
-  </si>
-  <si>
-    <t>Il software non permette l'invio di un documento che non presenta le informazioni relative alla residenza del paziente</t>
-  </si>
-  <si>
-    <t>Il campo Nome è un campo obbligatorio nel software e non è possibile memorizzare un paziente che non presenti tale dato.</t>
-  </si>
-  <si>
-    <t>Il campo Sesso è un campo obbligatorio nel software e non è possibile memorizzare un paziente che non presenti tale dato che sia diverso da M o F</t>
-  </si>
-  <si>
-    <t>Il software invia sempre quell'informazione anche in assenza di problemi essendo un dato obbligatorio</t>
-  </si>
-  <si>
-    <t>Non è possibile replicare la condizione in quanto la capacità motoria è un campo obbligatorio in fase di inserimento.</t>
-  </si>
-  <si>
-    <t>Il software invia sempre queste informazioni in quanto sono dati obbligatorio in fase di inserimento</t>
-  </si>
-  <si>
-    <t>Il campo "grado di parentela" è un dato obbligatorio, non è quindi possibile replicare l'errore.</t>
-  </si>
-  <si>
-    <t>Il campo è un dato obbligatorio, non è quindi possibile replicare l'errore.</t>
-  </si>
-  <si>
     <t>Il software non permette l'utilizzo di un token jwt che non presenta campi obbligatori.</t>
   </si>
   <si>
@@ -1959,6 +1926,9 @@
   </si>
   <si>
     <t>2025-01-13T20:21:21.6937043+01:00</t>
+  </si>
+  <si>
+    <t>I piani di cura non vengono ancora gestiti e quindi non è possibile effettuare questo test</t>
   </si>
 </sst>
 </file>
@@ -4362,10 +4332,10 @@
   <dimension ref="A1:W779"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="H33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="B221" sqref="B221"/>
+      <selection pane="bottomRight" activeCell="L188" sqref="L188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4438,7 +4408,7 @@
       </c>
       <c r="B3" s="78"/>
       <c r="C3" s="83" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="D3" s="75"/>
       <c r="F3" s="6"/>
@@ -4464,7 +4434,7 @@
       <c r="A4" s="79"/>
       <c r="B4" s="80"/>
       <c r="C4" s="83" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="D4" s="75"/>
       <c r="E4" s="4"/>
@@ -4491,7 +4461,7 @@
       <c r="A5" s="81"/>
       <c r="B5" s="82"/>
       <c r="C5" s="83" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="D5" s="75"/>
       <c r="F5" s="6"/>
@@ -5525,7 +5495,7 @@
         <v>307</v>
       </c>
       <c r="K33" s="71" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="L33" s="34"/>
       <c r="M33" s="34"/>
@@ -5825,7 +5795,7 @@
         <v>307</v>
       </c>
       <c r="K41" s="71" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="L41" s="34"/>
       <c r="M41" s="34"/>
@@ -6139,7 +6109,7 @@
         <v>87</v>
       </c>
       <c r="O49" s="34" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="P49" s="34" t="s">
         <v>307</v>
@@ -6151,7 +6121,7 @@
         <v>307</v>
       </c>
       <c r="S49" s="34" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="T49" s="34"/>
       <c r="U49" s="35" t="s">
@@ -10746,8 +10716,8 @@
       <c r="J173" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="K173" s="71" t="s">
-        <v>490</v>
+      <c r="K173" s="34" t="s">
+        <v>313</v>
       </c>
       <c r="L173" s="34"/>
       <c r="M173" s="34"/>
@@ -10787,8 +10757,8 @@
       <c r="J174" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="K174" s="71" t="s">
-        <v>491</v>
+      <c r="K174" s="34" t="s">
+        <v>317</v>
       </c>
       <c r="L174" s="34"/>
       <c r="M174" s="34"/>
@@ -10828,8 +10798,8 @@
       <c r="J175" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="K175" s="71" t="s">
-        <v>492</v>
+      <c r="K175" s="34" t="s">
+        <v>317</v>
       </c>
       <c r="L175" s="34"/>
       <c r="M175" s="34"/>
@@ -10869,8 +10839,8 @@
       <c r="J176" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="K176" s="71" t="s">
-        <v>493</v>
+      <c r="K176" s="34" t="s">
+        <v>313</v>
       </c>
       <c r="L176" s="34"/>
       <c r="M176" s="34"/>
@@ -10910,8 +10880,8 @@
       <c r="J177" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="K177" s="71" t="s">
-        <v>494</v>
+      <c r="K177" s="34" t="s">
+        <v>313</v>
       </c>
       <c r="L177" s="34"/>
       <c r="M177" s="34"/>
@@ -10951,8 +10921,8 @@
       <c r="J178" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="K178" s="71" t="s">
-        <v>495</v>
+      <c r="K178" s="34" t="s">
+        <v>313</v>
       </c>
       <c r="L178" s="34"/>
       <c r="M178" s="34"/>
@@ -10992,8 +10962,8 @@
       <c r="J179" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="K179" s="71" t="s">
-        <v>492</v>
+      <c r="K179" s="34" t="s">
+        <v>317</v>
       </c>
       <c r="L179" s="34"/>
       <c r="M179" s="34"/>
@@ -11033,8 +11003,8 @@
       <c r="J180" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="K180" s="71" t="s">
-        <v>496</v>
+      <c r="K180" s="34" t="s">
+        <v>313</v>
       </c>
       <c r="L180" s="34"/>
       <c r="M180" s="34"/>
@@ -11074,8 +11044,8 @@
       <c r="J181" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="K181" s="71" t="s">
-        <v>497</v>
+      <c r="K181" s="34" t="s">
+        <v>313</v>
       </c>
       <c r="L181" s="34"/>
       <c r="M181" s="34"/>
@@ -11115,8 +11085,8 @@
       <c r="J182" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="K182" s="71" t="s">
-        <v>498</v>
+      <c r="K182" s="34" t="s">
+        <v>313</v>
       </c>
       <c r="L182" s="34"/>
       <c r="M182" s="34"/>
@@ -11156,8 +11126,8 @@
       <c r="J183" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="K183" s="71" t="s">
-        <v>498</v>
+      <c r="K183" s="34" t="s">
+        <v>313</v>
       </c>
       <c r="L183" s="34"/>
       <c r="M183" s="34"/>
@@ -11197,8 +11167,8 @@
       <c r="J184" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="K184" s="71" t="s">
-        <v>498</v>
+      <c r="K184" s="34" t="s">
+        <v>313</v>
       </c>
       <c r="L184" s="34"/>
       <c r="M184" s="34"/>
@@ -11238,8 +11208,8 @@
       <c r="J185" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="K185" s="71" t="s">
-        <v>499</v>
+      <c r="K185" s="34" t="s">
+        <v>313</v>
       </c>
       <c r="L185" s="34"/>
       <c r="M185" s="34"/>
@@ -11279,8 +11249,8 @@
       <c r="J186" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="K186" s="71" t="s">
-        <v>500</v>
+      <c r="K186" s="34" t="s">
+        <v>313</v>
       </c>
       <c r="L186" s="34"/>
       <c r="M186" s="34"/>
@@ -11320,8 +11290,8 @@
       <c r="J187" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="K187" s="71" t="s">
-        <v>500</v>
+      <c r="K187" s="34" t="s">
+        <v>313</v>
       </c>
       <c r="L187" s="34"/>
       <c r="M187" s="34"/>
@@ -11361,8 +11331,8 @@
       <c r="J188" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="K188" s="71" t="s">
-        <v>492</v>
+      <c r="K188" s="34" t="s">
+        <v>317</v>
       </c>
       <c r="L188" s="34"/>
       <c r="M188" s="34"/>
@@ -11402,8 +11372,8 @@
       <c r="J189" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="K189" s="71" t="s">
-        <v>492</v>
+      <c r="K189" s="34" t="s">
+        <v>317</v>
       </c>
       <c r="L189" s="34"/>
       <c r="M189" s="34"/>
@@ -12365,13 +12335,13 @@
         <v>45670</v>
       </c>
       <c r="G215" s="55" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="H215" s="55" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="I215" s="55" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="J215" s="56" t="s">
         <v>87</v>
@@ -12417,8 +12387,12 @@
       <c r="J216" s="56" t="s">
         <v>307</v>
       </c>
-      <c r="K216" s="56"/>
-      <c r="L216" s="56"/>
+      <c r="K216" s="56" t="s">
+        <v>318</v>
+      </c>
+      <c r="L216" s="56" t="s">
+        <v>500</v>
+      </c>
       <c r="M216" s="56"/>
       <c r="N216" s="56"/>
       <c r="O216" s="56"/>
@@ -16695,7 +16669,7 @@
           <x14:formula1>
             <xm:f>'LISTA VALORI'!$A$2:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>K190:K219 K10:K32 K34:K40 K42:K172</xm:sqref>
+          <xm:sqref>K10:K32 K34:K40 K42:K219</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -18942,6 +18916,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -19199,15 +19182,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -19221,6 +19195,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3EEA2CD4-B321-4AF0-BAC8-6887893E697D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19235,14 +19217,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/GATEWAY/A1#200000SWHSHARK/e-Shark S.r.l/FaithG/2.9.0/report-checklist.xlsx
+++ b/GATEWAY/A1#200000SWHSHARK/e-Shark S.r.l/FaithG/2.9.0/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\it-fse-accreditamento\GATEWAY\A1#200000SWHSHARK\e-Shark S.r.l\FaithG\2.9.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221DD3A2-2821-4761-BAC1-20106803C9E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B44153-86EE-4F61-9A01-022BC6874F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43635" yWindow="3600" windowWidth="28695" windowHeight="15240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="499">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1898,12 +1898,6 @@
     <t>3) Nel caso in cui tra le tipologie documentali oggetto di accreditamento per l'applicativo figurino PSS,RAD,RAP i relativi casi di test con id 444, 446, 417,418,460 che recepiscono quanto previsto dal Decreto 07 settembre 2023, devono essere obbligatoriamente eseguiti e compilati (la colonna APPLICABILITA' deve essere valorizzata con SI)</t>
   </si>
   <si>
-    <t>Il software non permette l'utilizzo di un token jwt che non presenta campi obbligatori.</t>
-  </si>
-  <si>
-    <t>Il software effettua il controllo sulla congruenza dei dati valorizzati nel token e non permette quindi di inserire valori errati.</t>
-  </si>
-  <si>
     <t>Errore di timeout. Si prega di riprovare più tardi.</t>
   </si>
   <si>
@@ -1938,7 +1932,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2054,12 +2048,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2661,7 +2649,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2859,9 +2847,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4335,7 +4320,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="H33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="L188" sqref="L188"/>
+      <selection pane="bottomRight" activeCell="L176" sqref="L176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4377,12 +4362,12 @@
       <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="75"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="74"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -4403,14 +4388,14 @@
       <c r="W2" s="9"/>
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="83" t="s">
-        <v>494</v>
-      </c>
-      <c r="D3" s="75"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="82" t="s">
+        <v>492</v>
+      </c>
+      <c r="D3" s="74"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -4431,12 +4416,12 @@
       <c r="W3" s="9"/>
     </row>
     <row r="4" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="83" t="s">
-        <v>495</v>
-      </c>
-      <c r="D4" s="75"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="82" t="s">
+        <v>493</v>
+      </c>
+      <c r="D4" s="74"/>
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -4458,12 +4443,12 @@
       <c r="W4" s="9"/>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="83" t="s">
-        <v>496</v>
-      </c>
-      <c r="D5" s="75"/>
+      <c r="A5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="82" t="s">
+        <v>494</v>
+      </c>
+      <c r="D5" s="74"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -4484,8 +4469,8 @@
       <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="72"/>
-      <c r="B6" s="73"/>
+      <c r="A6" s="71"/>
+      <c r="B6" s="72"/>
       <c r="C6" s="10"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -5494,8 +5479,8 @@
       <c r="J33" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="K33" s="71" t="s">
-        <v>490</v>
+      <c r="K33" s="34" t="s">
+        <v>317</v>
       </c>
       <c r="L33" s="34"/>
       <c r="M33" s="34"/>
@@ -5794,8 +5779,8 @@
       <c r="J41" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="K41" s="71" t="s">
-        <v>491</v>
+      <c r="K41" s="34" t="s">
+        <v>317</v>
       </c>
       <c r="L41" s="34"/>
       <c r="M41" s="34"/>
@@ -6109,7 +6094,7 @@
         <v>87</v>
       </c>
       <c r="O49" s="34" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="P49" s="34" t="s">
         <v>307</v>
@@ -6121,7 +6106,7 @@
         <v>307</v>
       </c>
       <c r="S49" s="34" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="T49" s="34"/>
       <c r="U49" s="35" t="s">
@@ -12335,13 +12320,13 @@
         <v>45670</v>
       </c>
       <c r="G215" s="55" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H215" s="55" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="I215" s="55" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="J215" s="56" t="s">
         <v>87</v>
@@ -12391,7 +12376,7 @@
         <v>318</v>
       </c>
       <c r="L216" s="56" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="M216" s="56"/>
       <c r="N216" s="56"/>
@@ -16669,7 +16654,7 @@
           <x14:formula1>
             <xm:f>'LISTA VALORI'!$A$2:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>K10:K32 K34:K40 K42:K219</xm:sqref>
+          <xm:sqref>K10:K219</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -18916,12 +18901,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19183,21 +19171,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -19222,18 +19216,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/GATEWAY/A1#200000SWHSHARK/e-Shark S.r.l/FaithG/2.9.0/report-checklist.xlsx
+++ b/GATEWAY/A1#200000SWHSHARK/e-Shark S.r.l/FaithG/2.9.0/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\it-fse-accreditamento\GATEWAY\A1#200000SWHSHARK\e-Shark S.r.l\FaithG\2.9.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B44153-86EE-4F61-9A01-022BC6874F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA03B3FF-82A2-44EA-9283-BD0C82B28AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1913,16 +1913,16 @@
     <t>subject_application_version: 2.9.0</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.190.4.4.7ea8ffc5196c6be37baf167466f707b4b69833caf1da6cb54274c7d078844214.d8f17dfa34^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>7902b3d4b0c378fb</t>
-  </si>
-  <si>
-    <t>2025-01-13T20:21:21.6937043+01:00</t>
-  </si>
-  <si>
     <t>I piani di cura non vengono ancora gestiti e quindi non è possibile effettuare questo test</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.7ea8ffc5196c6be37baf167466f707b4b69833caf1da6cb54274c7d078844214.e9fc1db40b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>faa468d008e371f6</t>
+  </si>
+  <si>
+    <t>2025-01-29T10:05:09.9046097+01:00</t>
   </si>
 </sst>
 </file>
@@ -4317,10 +4317,10 @@
   <dimension ref="A1:W779"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="H33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="L176" sqref="L176"/>
+      <selection pane="bottomRight" activeCell="F186" sqref="F186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12317,16 +12317,16 @@
         <v>322</v>
       </c>
       <c r="F215" s="32">
-        <v>45670</v>
+        <v>45686</v>
       </c>
       <c r="G215" s="55" t="s">
+        <v>498</v>
+      </c>
+      <c r="H215" s="55" t="s">
         <v>497</v>
       </c>
-      <c r="H215" s="55" t="s">
+      <c r="I215" s="55" t="s">
         <v>496</v>
-      </c>
-      <c r="I215" s="55" t="s">
-        <v>495</v>
       </c>
       <c r="J215" s="56" t="s">
         <v>87</v>
@@ -12376,7 +12376,7 @@
         <v>318</v>
       </c>
       <c r="L216" s="56" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="M216" s="56"/>
       <c r="N216" s="56"/>
@@ -18901,15 +18901,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19171,27 +19168,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -19216,9 +19207,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/GATEWAY/A1#200000SWHSHARK/e-Shark S.r.l/FaithG/2.9.0/report-checklist.xlsx
+++ b/GATEWAY/A1#200000SWHSHARK/e-Shark S.r.l/FaithG/2.9.0/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\it-fse-accreditamento\GATEWAY\A1#200000SWHSHARK\e-Shark S.r.l\FaithG\2.9.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA03B3FF-82A2-44EA-9283-BD0C82B28AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8815B9A-9D94-4A5B-9CFA-5B27EEA836FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1916,13 +1916,13 @@
     <t>I piani di cura non vengono ancora gestiti e quindi non è possibile effettuare questo test</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.190.4.4.7ea8ffc5196c6be37baf167466f707b4b69833caf1da6cb54274c7d078844214.e9fc1db40b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>faa468d008e371f6</t>
-  </si>
-  <si>
-    <t>2025-01-29T10:05:09.9046097+01:00</t>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.9257904e95b694256922c80ea81ec900a4895f0e79984e7bd60166697d0ef535.61675f72d0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>ceac9e460049acb0</t>
+  </si>
+  <si>
+    <t>2025-01-30T13:04:55.8549346+01:00</t>
   </si>
 </sst>
 </file>
@@ -4317,10 +4317,10 @@
   <dimension ref="A1:W779"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="F186" sqref="F186"/>
+      <selection pane="bottomRight" activeCell="F216" sqref="F216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12317,7 +12317,7 @@
         <v>322</v>
       </c>
       <c r="F215" s="32">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="G215" s="55" t="s">
         <v>498</v>
@@ -18901,12 +18901,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19168,21 +19171,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -19207,18 +19216,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>